--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value20.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value20.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.081898535324962</v>
+        <v>4.977634906768799</v>
       </c>
       <c r="B1">
-        <v>1.391992055286702</v>
+        <v>5.096848011016846</v>
       </c>
       <c r="C1">
-        <v>1.536265184803221</v>
+        <v>4.194746971130371</v>
       </c>
       <c r="D1">
-        <v>1.688559504495949</v>
+        <v>4.952110290527344</v>
       </c>
       <c r="E1">
-        <v>1.990615874031516</v>
+        <v>5.269463062286377</v>
       </c>
     </row>
   </sheetData>
